--- a/src/main/resources/Template/test.xlsx
+++ b/src/main/resources/Template/test.xlsx
@@ -4,22 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
-      <t xml:space="preserve">数据分析表 </t>
+      <t xml:space="preserve">书本数据分析表 </t>
     </r>
     <r>
       <rPr>
@@ -31,18 +44,30 @@
       <t>{{date}}</t>
     </r>
   </si>
+  <si>
+    <t>{{likeBook#[1:《彷徨》,2:《花边文学》,3:《野草》]}}</t>
+  </si>
+  <si>
+    <t>统计类目：</t>
+  </si>
+  <si>
+    <t>{{lookType&amp;1#√:□}}自然 {{lookType&amp;2#√:□}}历史 {{lookType&amp;4#√:□}}科学</t>
+  </si>
+  <si>
+    <t>{{v-if#showBanner=1}}如果需要横幅，展示：读万券书，犹如行万里路。{{end-if}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,41 +82,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -105,14 +95,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,6 +139,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -202,7 +199,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,7 +232,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,49 +247,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,121 +391,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,21 +444,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,6 +476,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,210 +549,213 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1028,35 +1055,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N1"/>
+      <selection activeCell="A3" sqref="A3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" ht="22.5" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="A3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/Template/test.xlsx
+++ b/src/main/resources/Template/test.xlsx
@@ -29,9 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">书本数据分析表 </t>
     </r>
     <r>
@@ -48,6 +54,9 @@
     <t>{{likeBook#[1:《彷徨》,2:《花边文学》,3:《野草》]}}</t>
   </si>
   <si>
+    <t>{{title}}（推荐）</t>
+  </si>
+  <si>
     <t>统计类目：</t>
   </si>
   <si>
@@ -55,19 +64,77 @@
   </si>
   <si>
     <t>{{v-if#showBanner=1}}如果需要横幅，展示：读万券书，犹如行万里路。{{end-if}}</t>
+  </si>
+  <si>
+    <t>书名</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>页码</t>
+  </si>
+  <si>
+    <t>统计分析各类书数据，综合推荐高分书本。</t>
+  </si>
+  <si>
+    <t>{{books/col#name}}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{{col#time}}</t>
+    </r>
+  </si>
+  <si>
+    <t>{{col#intro}}</t>
+  </si>
+  <si>
+    <t>{{col#byName}}</t>
+  </si>
+  <si>
+    <t>{{col#pages}}</t>
+  </si>
+  <si>
+    <t>最大页码数</t>
+  </si>
+  <si>
+    <t>打印日期：</t>
+  </si>
+  <si>
+    <t>{{printDate#Date:yyyy年MM月dd日}}</t>
+  </si>
+  <si>
+    <t>页码平均数</t>
+  </si>
+  <si>
+    <t>书本数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +149,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -232,7 +334,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,7 +349,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,12 +564,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,148 +705,208 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1055,77 +1256,161 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="53.875" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="22.5" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:9">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="D8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="16">
+        <f ca="1">MAX(INDIRECT(ADDRESS(5,COLUMN())):INDIRECT(ADDRESS(ROW()-3,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="D9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="20" t="e">
+        <f ca="1">AVERAGE(INDIRECT(ADDRESS(5,COLUMN())):INDIRECT(ADDRESS(ROW()-4,COLUMN())))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="4:9">
+      <c r="D10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="23" t="str">
+        <f ca="1">TEXT(COUNT(INDIRECT(ADDRESS(5,COLUMN())):INDIRECT(ADDRESS(ROW()-5,COLUMN()))),"#0")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="A3:N3"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/Template/test.xlsx
+++ b/src/main/resources/Template/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="22845" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">书本数据分析表 </t>
     </r>
     <r>
@@ -835,7 +829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,19 +887,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,7 +1241,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1378,30 +1360,30 @@
       <c r="I8" s="18"/>
     </row>
     <row r="9" spans="4:9">
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="20" t="e">
+      <c r="E9" s="16" t="e">
         <f ca="1">AVERAGE(INDIRECT(ADDRESS(5,COLUMN())):INDIRECT(ADDRESS(ROW()-4,COLUMN())))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="4:9">
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="23" t="str">
+      <c r="E10" s="16" t="str">
         <f ca="1">TEXT(COUNT(INDIRECT(ADDRESS(5,COLUMN())):INDIRECT(ADDRESS(ROW()-5,COLUMN()))),"#0")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
